--- a/biology/Zoologie/Eueides/Eueides.xlsx
+++ b/biology/Zoologie/Eueides/Eueides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eueides regroupe des insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Heliconiinae, et de la tribu des Heliconiini.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eueides résident comme les Heliconius dans la forêt tropicale du sud du Mexique au Brésil. Les deux genres se ressemblent beaucoup mais les Eueides sont moins grands que les Heliconius et leurs antennes sont plus courtes.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique, dans sa partie tropicale et subtropicale, du Mexique au Brésil.
 </t>
@@ -573,24 +589,94 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eueides a été décrit par l'entomologiste allemand Jakob Hübner en 1816[1].
-L'espèce type pour le genre est Eueides isabella.
-Synonymes
-Mechanitis (Illiger, 1807) Attention le genre Mechanitis (Fabricius, 1807) existe.
-Eieides (Hübner, 1821) [2]
-Eisides (Hübner, 1825)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Eueides a été décrit par l'entomologiste allemand Jakob Hübner en 1816.
+L'espèce type pour le genre est Eueides isabella.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eueides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mechanitis (Illiger, 1807) Attention le genre Mechanitis (Fabricius, 1807) existe.
+Eieides (Hübner, 1821) 
+Eisides (Hübner, 1825).
 Semelia (Doubleday, 1845)
-Eurides (Doubleday, 1847) [4]
-Evides (Agassiz, 1847)[5]
+Eurides (Doubleday, 1847) 
+Evides (Agassiz, 1847)
 Semelia (Erichson, 1849)
-Eveides (Boisduval, 1870)[6]
-Semelia (Boisduval, 1870) [7]
-Eisides (Scudder, 1882)[8]
-Euides (Davis, 1928) [9]
-Taxinomie
-Liste des espèces
+Eveides (Boisduval, 1870)
+Semelia (Boisduval, 1870) 
+Eisides (Scudder, 1882)
+Euides (Davis, 1928) </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Eueides aliphera (Godart, 1819) ; du sud du Mexique au Brésil
 Trois sous espèces
 Eueides emsleyi Brown, 1976 ;
@@ -600,7 +686,7 @@
 Eueides heliconioides heliconioides au Pérou et en Bolivie.
 Eueides heliconioides eanes Hewitson, 1861 ; au Pérou.
 Eueides heliconioides koenigi H. &amp; R. Holzinger, 1993 ; au Pérou.
-Eueides isabella (Stoll, [1781])
+Eueides isabella (Stoll, )
 douze sous-espèces
 Eueides lampeto Bates, 1862
 sept sous-espèces
@@ -610,7 +696,7 @@
 Eueides lybia (Fabricius, 1775) présent au Nicaragua et dans le bassin amazonien.
 six sous-espèces
 Eueides pavana Ménétriés, 1857 ; au Brésil et en Colombie.
-Eueides procula Doubleday, [1847]
+Eueides procula Doubleday, 
 Eueides procula  procula ; au Venezuela.
 Eueides procula asidia Schaus, 1920 ; au Guatemala.
 Eueides procula browni H. et R. Holzinger, 1974 ; au Venezuela.
@@ -618,7 +704,7 @@
 Eueides procula eurysaces Hewitson, 1864 ; en Équateur.
 Eueides procula kuenowii Dewitz, 1877 ; en Colombie.
 Eueides procula vulgiformis Butler et Druce, 1872 ; au Costa Rica et au Guatemala.
-Eueides tales (Cramer, [1775])
+Eueides tales (Cramer, )
 douze sous-espèces
 Eueides vibilia (Godart, 1819) du Mexique au Brésil.
 six sous-espèces
